--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H2">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I2">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J2">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>0.8310266571075555</v>
+        <v>3.357716143439777</v>
       </c>
       <c r="R2">
-        <v>7.479239913968</v>
+        <v>30.219445290958</v>
       </c>
       <c r="S2">
-        <v>0.08775473298818653</v>
+        <v>0.1804059551865252</v>
       </c>
       <c r="T2">
-        <v>0.08775473298818655</v>
+        <v>0.1804059551865252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H3">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I3">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J3">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
-        <v>0.4134551252622222</v>
+        <v>0.8290663692177775</v>
       </c>
       <c r="R3">
-        <v>3.72109612736</v>
+        <v>7.461597322959999</v>
       </c>
       <c r="S3">
-        <v>0.0436600243923194</v>
+        <v>0.04454471547393331</v>
       </c>
       <c r="T3">
-        <v>0.0436600243923194</v>
+        <v>0.04454471547393331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H4">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I4">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J4">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>1.287500783584</v>
+        <v>3.286312354221111</v>
       </c>
       <c r="R4">
-        <v>11.587507052256</v>
+        <v>29.57681118799</v>
       </c>
       <c r="S4">
-        <v>0.1359574768380407</v>
+        <v>0.1765695174867218</v>
       </c>
       <c r="T4">
-        <v>0.1359574768380407</v>
+        <v>0.1765695174867218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H5">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I5">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J5">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.2908955532017778</v>
+        <v>1.289118223064222</v>
       </c>
       <c r="R5">
-        <v>2.618059978816</v>
+        <v>11.602064007578</v>
       </c>
       <c r="S5">
-        <v>0.03071798164396179</v>
+        <v>0.06926273527755941</v>
       </c>
       <c r="T5">
-        <v>0.03071798164396179</v>
+        <v>0.06926273527755943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.078262</v>
       </c>
       <c r="I6">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J6">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N6">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q6">
-        <v>1.074615449705111</v>
+        <v>2.165315502418444</v>
       </c>
       <c r="R6">
-        <v>9.671539047346</v>
+        <v>19.487839521766</v>
       </c>
       <c r="S6">
-        <v>0.1134772164614774</v>
+        <v>0.1163397365370521</v>
       </c>
       <c r="T6">
-        <v>0.1134772164614774</v>
+        <v>0.1163397365370521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.078262</v>
       </c>
       <c r="I7">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J7">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q7">
         <v>0.5346462253244444</v>
@@ -883,10 +883,10 @@
         <v>4.81181602792</v>
       </c>
       <c r="S7">
-        <v>0.05645755926745934</v>
+        <v>0.02872588356075744</v>
       </c>
       <c r="T7">
-        <v>0.05645755926745935</v>
+        <v>0.02872588356075744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.078262</v>
       </c>
       <c r="I8">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J8">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N8">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q8">
-        <v>1.664890315748</v>
+        <v>2.119268807247778</v>
       </c>
       <c r="R8">
-        <v>14.984012841732</v>
+        <v>19.07341926523</v>
       </c>
       <c r="S8">
-        <v>0.17580904759614</v>
+        <v>0.1138657042869832</v>
       </c>
       <c r="T8">
-        <v>0.17580904759614</v>
+        <v>0.1138657042869832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.078262</v>
       </c>
       <c r="I9">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J9">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N9">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q9">
-        <v>0.3761622482835556</v>
+        <v>0.8313233023895555</v>
       </c>
       <c r="R9">
-        <v>3.385460234552</v>
+        <v>7.481909721506</v>
       </c>
       <c r="S9">
-        <v>0.03972197206435344</v>
+        <v>0.04466597771506774</v>
       </c>
       <c r="T9">
-        <v>0.03972197206435345</v>
+        <v>0.04466597771506774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H10">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I10">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J10">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N10">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q10">
-        <v>0.68687846146</v>
+        <v>1.541955376516333</v>
       </c>
       <c r="R10">
-        <v>6.18190615314</v>
+        <v>13.877598388647</v>
       </c>
       <c r="S10">
-        <v>0.07253297528451888</v>
+        <v>0.08284736430115583</v>
       </c>
       <c r="T10">
-        <v>0.07253297528451889</v>
+        <v>0.08284736430115583</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H11">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I11">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J11">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.56316</v>
       </c>
       <c r="O11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q11">
-        <v>0.3417380392</v>
+        <v>0.3807300232933333</v>
       </c>
       <c r="R11">
-        <v>3.0756423528</v>
+        <v>3.42657020964</v>
       </c>
       <c r="S11">
-        <v>0.03608684525991213</v>
+        <v>0.02045615548968269</v>
       </c>
       <c r="T11">
-        <v>0.03608684525991214</v>
+        <v>0.02045615548968269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H12">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I12">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J12">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N12">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q12">
-        <v>1.06417351332</v>
+        <v>1.509164797448334</v>
       </c>
       <c r="R12">
-        <v>9.577561619879999</v>
+        <v>13.582483177035</v>
       </c>
       <c r="S12">
-        <v>0.1123745691137444</v>
+        <v>0.08108556685158892</v>
       </c>
       <c r="T12">
-        <v>0.1123745691137444</v>
+        <v>0.08108556685158892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H13">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I13">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J13">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N13">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q13">
-        <v>0.24043740152</v>
+        <v>0.5919984567196667</v>
       </c>
       <c r="R13">
-        <v>2.16393661368</v>
+        <v>5.327986110477</v>
       </c>
       <c r="S13">
-        <v>0.02538970295393327</v>
+        <v>0.03180734835555517</v>
       </c>
       <c r="T13">
-        <v>0.02538970295393327</v>
+        <v>0.03180734835555517</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H14">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I14">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J14">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N14">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q14">
-        <v>0.1953155057931111</v>
+        <v>0.06720910533088889</v>
       </c>
       <c r="R14">
-        <v>1.757839552138</v>
+        <v>0.604881947978</v>
       </c>
       <c r="S14">
-        <v>0.0206249220921306</v>
+        <v>0.003611062497983984</v>
       </c>
       <c r="T14">
-        <v>0.02062492209213061</v>
+        <v>0.003611062497983984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H15">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I15">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J15">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.56316</v>
       </c>
       <c r="O15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q15">
-        <v>0.09717401508444443</v>
+        <v>0.01659485392888889</v>
       </c>
       <c r="R15">
-        <v>0.8745661357599999</v>
+        <v>0.14935368536</v>
       </c>
       <c r="S15">
-        <v>0.01026137931219427</v>
+        <v>0.0008916210740658626</v>
       </c>
       <c r="T15">
-        <v>0.01026137931219427</v>
+        <v>0.0008916210740658626</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H16">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I16">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J16">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N16">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q16">
-        <v>0.302600241044</v>
+        <v>0.06577986456555557</v>
       </c>
       <c r="R16">
-        <v>2.723402169396</v>
+        <v>0.5920187810900001</v>
       </c>
       <c r="S16">
-        <v>0.03195397298975004</v>
+        <v>0.003534271150994975</v>
       </c>
       <c r="T16">
-        <v>0.03195397298975005</v>
+        <v>0.003534271150994975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H17">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I17">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J17">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N17">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q17">
-        <v>0.06836894053955556</v>
+        <v>0.02580339693311112</v>
       </c>
       <c r="R17">
-        <v>0.6153204648559999</v>
+        <v>0.232230572398</v>
       </c>
       <c r="S17">
-        <v>0.007219621741877997</v>
+        <v>0.00138638475437239</v>
       </c>
       <c r="T17">
-        <v>0.007219621741877998</v>
+        <v>0.00138638475437239</v>
       </c>
     </row>
   </sheetData>
